--- a/TareasProyecto.xlsx
+++ b/TareasProyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JALZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarartunduaga/Desktop/MIND HUB/Grupo-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA895FA-7AC2-48A5-B9F2-795FAA8DB67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CB767-02C6-5247-B638-B3C5B02EDEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -411,12 +411,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
